--- a/data/trans_dic/P12A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12A-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que convive con personas que tienen alguna limitación, discapacidad de tipo físico, sensorial o psíquico o mental (incluyéndose a sí mismo)</t>
+          <t>Población que convive con personas que tienen alguna limitación, discapacidad de tipo físico, sensorial o psíquico o mental (incluyéndose a sí mismo) (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,79%</t>
+          <t>17,6%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>19,62%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>25,17%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29,23%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>25,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,41%</t>
+          <t>22,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>25,73%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>24,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>27,11%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>21,91%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>21,17%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>25,24%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>21,67%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,35; 24,54</t>
+          <t>10,8; 25,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,53; 23,68</t>
+          <t>14,28; 25,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,85; 31,13</t>
+          <t>20,02; 30,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,67; 35,17</t>
+          <t>9,62; 24,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,25; 27,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,75; 30,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,85; 29,36</t>
+          <t>18,81; 33,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,23; 31,73</t>
+          <t>17,75; 27,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,62; 24,65</t>
+          <t>20,72; 30,08</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,77; 26,12</t>
+          <t>18,99; 33,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>21,42; 28,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>23,2; 31,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>16,07; 27,24</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>17,74; 25,13</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>21,88; 28,98</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>16,24; 26,88</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>19,98%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>15,71%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>14,53%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>15,21%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>18,54%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,97; 18,58</t>
+          <t>13,2; 23,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,4; 19,45</t>
+          <t>12,43; 21,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,83; 21,42</t>
+          <t>13,21; 21,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,09; 24,99</t>
+          <t>12,85; 26,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,71; 18,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,7; 15,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,8; 16,47</t>
+          <t>10,78; 19,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,93; 22,21</t>
+          <t>10,39; 16,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,76; 17,24</t>
+          <t>11,35; 17,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,23; 16,71</t>
+          <t>16,12; 24,31</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,81; 17,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,4; 22,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>13,04; 19,3</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>12,05; 17,46</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>12,78; 17,88</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>15,42; 23,15</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>9,28%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8,08%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12,56%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10,24%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9,86%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>9,95%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10,22%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>9,25%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>9,58%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
           <t>9,04%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,83%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>13,18%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>10,57%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>9,33%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>9,76%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>13,19%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>9,43%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>9,19%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>8,83%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>13,18%</t>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>11,34%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,54; 13,57</t>
+          <t>5,08; 11,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,51; 12,78</t>
+          <t>6,8; 12,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,8; 10,5</t>
+          <t>5,74; 10,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,3; 20,13</t>
+          <t>8,84; 17,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,69; 13,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,07; 12,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 12,56</t>
+          <t>7,31; 14,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,58; 18,12</t>
+          <t>7,29; 12,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,37; 12,28</t>
+          <t>7,57; 12,9</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,38; 11,32</t>
+          <t>7,24; 13,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,36; 10,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,12; 16,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>6,96; 12,08</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>7,76; 11,98</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>7,45; 10,86</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>9,11; 14,27</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>20,69%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>14,28%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>15,3%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>17,16%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,26; 16,23</t>
+          <t>9,47; 16,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,22; 16,57</t>
+          <t>11,11; 18,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,38; 18,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,91; 24,79</t>
+          <t>11,08; 19,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,14; 17,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,21; 17,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,47; 17,26</t>
+          <t>13,33; 19,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,21; 22,7</t>
+          <t>12,57; 20,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,75; 15,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,23; 16,14</t>
+          <t>15,19; 25,31</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,81; 17,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,8; 22,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>12,15; 16,77</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>12,66; 18,47</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>14,31; 20,95</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13,21%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14,61%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15,61%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15,1%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15,61%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14,49%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>15,49%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>18,51%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>14,44%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>14,55%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>15,55%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>16,85%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11,16; 15,71</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12,66; 16,72</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13,58; 18,25</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>12,69; 18,16</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>13,48; 17,8</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>12,75; 16,39</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>13,73; 17,56</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>16,11; 21,06</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>12,97; 15,98</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>13,27; 16,14</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>14,04; 17,15</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>15,06; 18,84</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que convive con personas que tienen alguna limitación, discapacidad de tipo físico, sensorial o psíquico o mental (incluyéndose a sí mismo) (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>59712</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>103214</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>182638</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>67902</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>106998</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>143324</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>226859</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>166710</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>246537</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>409498</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>233927</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>36645; 85477</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>75121; 134818</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>144834; 219714</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>41781; 105357</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>79331; 140403</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>113366; 172723</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>186245; 270295</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>122541; 214727</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>122262; 207260</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>206578; 292721</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>354980; 470145</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>175354; 290247</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>158726</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>195137</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>265915</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>182319</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>144866</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>159408</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>210165</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>214639</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>303592</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>354546</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>476080</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>396958</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>123119; 219642</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>149996; 261183</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>214246; 341846</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>137072; 279292</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>107820; 190971</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>128095; 202325</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>171140; 267078</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>173104; 261089</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>251974; 372921</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>294031; 426178</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>400150; 559638</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>330097; 495579</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>58210</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>78478</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>88303</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>103786</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>78789</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>92813</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>115577</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>91651</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>136999</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>171291</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>203880</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>195438</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>36170; 84377</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>57500; 107611</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>62727; 119882</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>73023; 141263</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>56198; 107913</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>68664; 122275</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>87931; 149866</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>64921; 122661</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>103139; 178921</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>138754; 214108</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>168048; 244918</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>156930; 245898</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>177879</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>125037</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>162855</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>229714</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>122889</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>193450</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>407594</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>247926</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>356305</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>137977; 233901</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>95296; 161930</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>121427; 213106</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>186286; 278402</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>95966; 157594</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>148859; 248033</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>347028; 478946</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>205176; 299287</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>296962; 434796</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>356.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>437.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>455.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>376.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>454527</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>501866</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>536857</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>516862</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>560367</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>518434</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>552602</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>665765</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1014894</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1020300</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1089458</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1182627</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>383966; 540704</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>435096; 574560</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>466926; 627572</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>434600; 621615</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>483892; 638899</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>456136; 586385</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>490024; 626668</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>579518; 757404</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>911844; 1123129</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>930293; 1131919</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>984103; 1202002</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1057343; 1322404</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
